--- a/resources/templates/Region_Costs.xlsx
+++ b/resources/templates/Region_Costs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aznavouridis.k\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE45350-55FF-4491-9677-361CE688BCB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6B7E12-6A32-4C74-92F7-A5DD75B8DA9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="2505" windowWidth="14925" windowHeight="11745" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
+    <workbookView xWindow="14544" yWindow="2760" windowWidth="16068" windowHeight="8964" activeTab="1" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Concepts" sheetId="1" r:id="rId1"/>
+    <sheet name="PT Beverages" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Γεωγραφικός Τομέας</t>
   </si>
@@ -85,6 +86,27 @@
   </si>
   <si>
     <t>ΣΤΕΡΕΑ ΕΛΛΑΔΑ - ΕΥΒΟΙΑ</t>
+  </si>
+  <si>
+    <t>Μηχανή</t>
+  </si>
+  <si>
+    <t>Τσάντα</t>
+  </si>
+  <si>
+    <t>Διαφ Ομπρέλα</t>
+  </si>
+  <si>
+    <t>ΝΗΣΙΑ ΑΙΓΑΙΟΥ (ΕΚΤΟΣ ΔΩΔ/ΣΑ)</t>
+  </si>
+  <si>
+    <t>ΟΙΝΟΦΥΤΑ</t>
+  </si>
+  <si>
+    <t>ΣΤΕΡΕΑ ΕΛΛΑΔΑ</t>
+  </si>
+  <si>
+    <t>ΧΑΛΚΙΔΙΚΗ</t>
   </si>
 </sst>
 </file>
@@ -139,9 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,322 +482,722 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AEA5A0-E003-41FB-8FDA-321B33BEF49D}">
   <dimension ref="A1:F15"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.48</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C3">
+        <v>1.9</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>2.73</v>
+      </c>
+      <c r="F3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.75</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
+        <v>2.75</v>
+      </c>
+      <c r="E5">
+        <v>2.25</v>
+      </c>
+      <c r="F5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>42.5</v>
+      </c>
+      <c r="C7">
+        <v>1.06</v>
+      </c>
+      <c r="D7">
+        <v>2.91</v>
+      </c>
+      <c r="E7">
+        <v>2.39</v>
+      </c>
+      <c r="F7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>47.7</v>
+      </c>
+      <c r="C8">
+        <v>1.38</v>
+      </c>
+      <c r="D8">
+        <v>3.18</v>
+      </c>
+      <c r="E8">
+        <v>2.65</v>
+      </c>
+      <c r="F8">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>1.45</v>
+      </c>
+      <c r="D9">
+        <v>2.4</v>
+      </c>
+      <c r="E9">
+        <v>1.8</v>
+      </c>
+      <c r="F9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>0.94</v>
+      </c>
+      <c r="D10">
+        <v>2.1</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+      <c r="F10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>58.3</v>
+      </c>
+      <c r="C11">
+        <v>1.59</v>
+      </c>
+      <c r="D11">
+        <v>3.18</v>
+      </c>
+      <c r="E11">
+        <v>2.65</v>
+      </c>
+      <c r="F11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>58.3</v>
+      </c>
+      <c r="C12">
+        <v>1.59</v>
+      </c>
+      <c r="D12">
+        <v>3.18</v>
+      </c>
+      <c r="E12">
+        <v>2.65</v>
+      </c>
+      <c r="F12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>2.5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C14">
+        <v>1.9</v>
+      </c>
+      <c r="D14">
+        <v>3.5</v>
+      </c>
+      <c r="E14">
+        <v>2.73</v>
+      </c>
+      <c r="F14">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <v>2.75</v>
+      </c>
+      <c r="E15">
+        <v>2.25</v>
+      </c>
+      <c r="F15">
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F15">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF30C97-E71C-442E-B5FA-CF0C8D22EB18}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
+        <v>0.47</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0.48</v>
-      </c>
       <c r="D2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
         <v>40</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2.75</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>38</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
         <v>0.85</v>
       </c>
-      <c r="D4">
-        <v>2.75</v>
-      </c>
-      <c r="E4">
-        <v>2.25</v>
-      </c>
-      <c r="F4">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>32.5</v>
+      </c>
+      <c r="D5">
+        <v>32.5</v>
+      </c>
+      <c r="E5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B6">
+        <v>1.4</v>
+      </c>
+      <c r="C6">
         <v>55</v>
       </c>
-      <c r="C5">
-        <v>1.5</v>
-      </c>
-      <c r="D5">
-        <v>2.5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>42.5</v>
-      </c>
-      <c r="C6">
-        <v>1.06</v>
-      </c>
-      <c r="D6">
-        <v>2.91</v>
-      </c>
-      <c r="E6">
-        <v>2.39</v>
-      </c>
-      <c r="F6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>47.7</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>1.28</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>0.65</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1.35</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.94</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
         <v>1.38</v>
       </c>
-      <c r="D7">
-        <v>3.18</v>
-      </c>
-      <c r="E7">
-        <v>2.65</v>
-      </c>
-      <c r="F7">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>1.45</v>
-      </c>
-      <c r="D8">
-        <v>2.4</v>
-      </c>
-      <c r="E8">
-        <v>1.8</v>
-      </c>
-      <c r="F8">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>0.94</v>
-      </c>
-      <c r="D9">
-        <v>2.1</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>58.3</v>
-      </c>
-      <c r="C10">
-        <v>1.59</v>
-      </c>
-      <c r="D10">
-        <v>3.18</v>
-      </c>
-      <c r="E10">
-        <v>2.65</v>
-      </c>
-      <c r="F10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>58.3</v>
-      </c>
-      <c r="C11">
-        <v>1.59</v>
-      </c>
-      <c r="D11">
-        <v>3.18</v>
-      </c>
-      <c r="E11">
-        <v>2.65</v>
-      </c>
-      <c r="F11">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C13">
+        <v>22.5</v>
+      </c>
+      <c r="D13">
+        <v>22.5</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>0.75</v>
-      </c>
-      <c r="D12">
-        <v>2.5</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="C13">
-        <v>1.9</v>
-      </c>
-      <c r="D13">
-        <v>3.5</v>
-      </c>
-      <c r="E13">
-        <v>2.73</v>
-      </c>
-      <c r="F13">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
       <c r="B14">
-        <v>68.900000000000006</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>1.9</v>
+        <v>37.5</v>
       </c>
       <c r="D14">
-        <v>3.5</v>
+        <v>37.5</v>
       </c>
       <c r="E14">
-        <v>2.73</v>
+        <v>0.4</v>
       </c>
       <c r="F14">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
-        <v>0.9</v>
+        <v>32.5</v>
       </c>
       <c r="D15">
-        <v>2.75</v>
+        <v>32.5</v>
       </c>
       <c r="E15">
-        <v>2.25</v>
+        <v>0.4</v>
       </c>
       <c r="F15">
-        <v>5.5</v>
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>1.4</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>0.7</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F15">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/resources/templates/Region_Costs.xlsx
+++ b/resources/templates/Region_Costs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aznavouridis.k\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aznavouridis.k\miniconda3\envs\dsc\Lib\site-packages\atakl\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6B7E12-6A32-4C74-92F7-A5DD75B8DA9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2750067-F923-4C6B-B4EB-780B622FB371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14544" yWindow="2760" windowWidth="16068" windowHeight="8964" activeTab="1" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
     <sheet name="PT Beverages" sheetId="3" r:id="rId2"/>
+    <sheet name="Cavino" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>Γεωγραφικός Τομέας</t>
   </si>
@@ -487,17 +488,17 @@
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -537,7 +538,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -557,7 +558,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -577,7 +578,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -597,7 +598,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -617,7 +618,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -637,7 +638,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -657,7 +658,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -677,7 +678,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -697,7 +698,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -717,7 +718,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -737,7 +738,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -757,7 +758,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -777,7 +778,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -810,23 +811,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF30C97-E71C-442E-B5FA-CF0C8D22EB18}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -872,7 +873,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -895,7 +896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -918,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -941,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -964,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -987,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1201,4 +1202,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F0C5FE-CD01-4891-9A23-5764864DBC24}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>1.3</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>1.8</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>42.5</v>
+      </c>
+      <c r="C6">
+        <v>1.35</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>1.6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>1.3</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>1.3</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/templates/Region_Costs.xlsx
+++ b/resources/templates/Region_Costs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aznavouridis.k\miniconda3\envs\dsc\Lib\site-packages\atakl\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2750067-F923-4C6B-B4EB-780B622FB371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0A1F2-E027-47E0-816C-A46F5AEC5C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
+    <workbookView xWindow="2625" yWindow="3225" windowWidth="14625" windowHeight="11550" activeTab="3" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
     <sheet name="PT Beverages" sheetId="3" r:id="rId2"/>
     <sheet name="Cavino" sheetId="4" r:id="rId3"/>
+    <sheet name="Giochi" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>Γεωγραφικός Τομέας</t>
   </si>
@@ -108,6 +109,15 @@
   </si>
   <si>
     <t>ΧΑΛΚΙΔΙΚΗ</t>
+  </si>
+  <si>
+    <t>ΝΗΣΙΑ (εκτός Δωδεκαννήσων)</t>
+  </si>
+  <si>
+    <t>ΕΞΑΓΩΓΗ(ΙΔΙΟΦΟΡΤΩΣΗ - ΜΗΔΕΝΙΚΗ ΧΡΕΩΣΗ)</t>
+  </si>
+  <si>
+    <t>Κυβικό</t>
   </si>
 </sst>
 </file>
@@ -162,11 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G16"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,9 +1219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F0C5FE-CD01-4891-9A23-5764864DBC24}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,4 +1459,266 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FDE494-C80B-47E6-A5AB-D697287A2E21}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>8.1</v>
+      </c>
+      <c r="C2">
+        <v>0.68</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>30.5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>30.5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>3.15</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>19.5</v>
+      </c>
+      <c r="C8">
+        <v>1.85</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>3.2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>27.5</v>
+      </c>
+      <c r="C10">
+        <v>2.4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>3.6</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>3.2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/resources/templates/Region_Costs.xlsx
+++ b/resources/templates/Region_Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aznavouridis.k\miniconda3\envs\dsc\Lib\site-packages\atakl\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.temp\.dev\akl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B0A1F2-E027-47E0-816C-A46F5AEC5C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39927F2F-415D-4404-9B56-6C74008AFCDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="3225" windowWidth="14625" windowHeight="11550" activeTab="3" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
+    <workbookView xWindow="-25200" yWindow="1485" windowWidth="23265" windowHeight="13710" activeTab="3" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>Γεωγραφικός Τομέας</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>Κυβικό</t>
+  </si>
+  <si>
+    <t>ΠΕΛΛΟΠΟΝΗΣΟΣ</t>
+  </si>
+  <si>
+    <t>ΣΤ.ΕΛΛΑΔΑ - ΕΥΒΟΙΑ</t>
+  </si>
+  <si>
+    <t>ΔΩΔΕΚΑΝΝΗΣΑ</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1643,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>27.5</v>
@@ -1651,7 +1660,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>43</v>
@@ -1668,7 +1677,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>25</v>

--- a/resources/templates/Region_Costs.xlsx
+++ b/resources/templates/Region_Costs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.temp\.dev\akl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39927F2F-415D-4404-9B56-6C74008AFCDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829AA2CB-6379-4B93-9A19-A04237D0E5B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="1485" windowWidth="23265" windowHeight="13710" activeTab="3" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
+    <workbookView xWindow="-28920" yWindow="-210" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6C94133A-C317-45C8-9266-84C03FA91031}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
     <sheet name="PT Beverages" sheetId="3" r:id="rId2"/>
     <sheet name="Cavino" sheetId="4" r:id="rId3"/>
     <sheet name="Giochi" sheetId="5" r:id="rId4"/>
+    <sheet name="Essse" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>Γεωγραφικός Τομέας</t>
   </si>
@@ -127,6 +128,18 @@
   </si>
   <si>
     <t>ΔΩΔΕΚΑΝΝΗΣΑ</t>
+  </si>
+  <si>
+    <t>Cartons</t>
+  </si>
+  <si>
+    <t>Full pallets</t>
+  </si>
+  <si>
+    <t>Weight in kg</t>
+  </si>
+  <si>
+    <t>Minimum Charge</t>
   </si>
 </sst>
 </file>
@@ -1474,9 +1487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FDE494-C80B-47E6-A5AB-D697287A2E21}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,4 +1743,265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AACC64-D562-4AC0-B34C-307BFB70E44D}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>0.09</v>
+      </c>
+      <c r="E2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2.15</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>0.36</v>
+      </c>
+      <c r="E3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.6</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0.27</v>
+      </c>
+      <c r="E4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1.3</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>0.22</v>
+      </c>
+      <c r="E5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1.9</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>0.32</v>
+      </c>
+      <c r="E6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1.35</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>0.23</v>
+      </c>
+      <c r="E7">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1.6</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>0.27</v>
+      </c>
+      <c r="E8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1.6</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>0.27</v>
+      </c>
+      <c r="E9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1.2</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1.9</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>0.32</v>
+      </c>
+      <c r="E11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2.15</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>0.36</v>
+      </c>
+      <c r="E12">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1.3</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>0.22</v>
+      </c>
+      <c r="E13">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>1.35</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>0.23</v>
+      </c>
+      <c r="E14">
+        <v>6.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>